--- a/docs/Estimation & Cost.xlsx
+++ b/docs/Estimation & Cost.xlsx
@@ -33,18 +33,12 @@
     <t>Data Access layer &amp; Service layer (Secure API)</t>
   </si>
   <si>
-    <t>Front End desgining with CSS (Responsive)</t>
-  </si>
-  <si>
     <t>Repoting module &amp; Data Export</t>
   </si>
   <si>
     <t>Payment Gateway integration</t>
   </si>
   <si>
-    <t>Client Scripting with AJAX, Jquery</t>
-  </si>
-  <si>
     <t>Email/SMS Gaterway integration</t>
   </si>
   <si>
@@ -52,6 +46,12 @@
   </si>
   <si>
     <t>Estimated man hours</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Front End desgining with CSS (Responsive), AJAX, Jquery</t>
   </si>
 </sst>
 </file>
@@ -150,24 +150,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C12"/>
+  <dimension ref="A2:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -493,7 +491,7 @@
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="3">
         <v>120000</v>
       </c>
     </row>
@@ -504,7 +502,7 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <v>160000</v>
       </c>
     </row>
@@ -513,9 +511,9 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
         <v>160000</v>
       </c>
     </row>
@@ -524,10 +522,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="7">
-        <v>50000</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>150000</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -537,8 +535,8 @@
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="7">
-        <v>150000</v>
+      <c r="C7" s="3">
+        <v>80000</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -548,8 +546,8 @@
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="7">
-        <v>120000</v>
+      <c r="C8" s="3">
+        <v>90000</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -557,40 +555,35 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="4">
+        <f>SUM(C3:C9)</f>
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="8">
-        <f>SUM(C3:C9)</f>
-        <v>860000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="9">
-        <v>573</v>
+      <c r="B11" s="7"/>
+      <c r="C11" s="5">
+        <v>586</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/Estimation & Cost.xlsx
+++ b/docs/Estimation & Cost.xlsx
@@ -39,9 +39,6 @@
     <t>Payment Gateway integration</t>
   </si>
   <si>
-    <t>Email/SMS Gaterway integration</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>Front End desgining with CSS (Responsive), AJAX, Jquery</t>
+  </si>
+  <si>
+    <t>Email/SMS Gateway integration</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
   <dimension ref="A2:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C3" sqref="C3:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>120000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -503,7 +503,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="3">
-        <v>160000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -511,10 +511,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3">
-        <v>160000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -525,7 +525,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>150000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -536,7 +536,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="3">
-        <v>80000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -544,10 +544,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3">
-        <v>90000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -555,25 +555,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>120000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="4">
         <f>SUM(C3:C9)</f>
-        <v>880000</v>
+        <v>950000</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="5">

--- a/docs/Estimation & Cost.xlsx
+++ b/docs/Estimation & Cost.xlsx
@@ -464,7 +464,7 @@
   <dimension ref="A2:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -577,7 +577,7 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="5">
-        <v>586</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
